--- a/fnsco-war-web/src/main/webapp/template/交易流水导入模板.xlsx
+++ b/fnsco-war-web/src/main/webapp/template/交易流水导入模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fns\workspace-hb\fnsco-big-data\fnsco-war-web\src\main\webapp\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+  <si>
+    <t>00</t>
+  </si>
   <si>
     <t>内部商户号</t>
   </si>
@@ -42,46 +45,52 @@
     <t>1001</t>
   </si>
   <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>交易币种</t>
+  </si>
+  <si>
+    <t>应答码</t>
+  </si>
+  <si>
+    <t>清算日期</t>
+  </si>
+  <si>
+    <t>卡号</t>
+  </si>
+  <si>
+    <t>通道号</t>
+  </si>
+  <si>
+    <t>渠道类型</t>
+  </si>
+  <si>
+    <t>交易金额</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+  </si>
+  <si>
     <t>交易子类型</t>
   </si>
   <si>
-    <t>交易币种</t>
-  </si>
-  <si>
-    <t>应答码</t>
-  </si>
-  <si>
-    <t>清算日期</t>
-  </si>
-  <si>
-    <t>持卡人卡号</t>
-  </si>
-  <si>
-    <t>通道号</t>
-  </si>
-  <si>
-    <t>渠道类型</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>支付方式</t>
-  </si>
-  <si>
-    <t>交易时间戳</t>
-  </si>
-  <si>
-    <t>渠道商户号</t>
-  </si>
-  <si>
-    <t>渠道终端号</t>
+    <t>交易时间</t>
+  </si>
+  <si>
+    <t>通道商户号</t>
+  </si>
+  <si>
+    <t>通道终端号</t>
   </si>
   <si>
     <t>批次号</t>
   </si>
   <si>
-    <t>凭证号</t>
+    <t>终端流水号</t>
   </si>
   <si>
     <t>参考号</t>
@@ -96,7 +105,7 @@
     <t>交易传送时间</t>
   </si>
   <si>
-    <t>交易创建时间</t>
+    <t>记录创建时间</t>
   </si>
   <si>
     <t>支付超时时间</t>
@@ -126,59 +135,112 @@
     <t>内部终端号</t>
   </si>
   <si>
-    <t>支付媒介</t>
-  </si>
-  <si>
-    <t>080313896430097</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>2300</t>
+    <t>(null)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付媒介</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>00pos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>01app02</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6226580515196943   </t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>000000017000</t>
+  </si>
+  <si>
+    <t>20160930234838</t>
+  </si>
+  <si>
+    <t>305565054110001</t>
+  </si>
+  <si>
+    <t>10074686</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000072      </t>
+  </si>
+  <si>
+    <t>000553871838</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>20170914160130</t>
-  </si>
-  <si>
-    <t>952010938305</t>
-  </si>
-  <si>
-    <t>20170914160333</t>
-  </si>
-  <si>
-    <t>固定二维码支付</t>
-  </si>
-  <si>
-    <t>2088022976968836</t>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-  </si>
-  <si>
-    <t>2017091421001004830258726767</t>
-  </si>
-  <si>
-    <t>已付款</t>
-  </si>
-  <si>
-    <t>20170914160133</t>
-  </si>
-  <si>
-    <t>10000758</t>
+    <t>20160930234853</t>
+  </si>
+  <si>
+    <t>10000247</t>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例080110211943843</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +261,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,12 +292,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -512,186 +583,221 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="33.375" style="2" customWidth="1"/>
+    <col min="8" max="20" width="9" style="2"/>
+    <col min="21" max="21" width="15.25" style="2" customWidth="1"/>
+    <col min="22" max="22" width="19.5" style="2" customWidth="1"/>
+    <col min="23" max="31" width="9" style="2"/>
+    <col min="32" max="32" width="10.75" style="3" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="X2" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/fnsco-war-web/src/main/webapp/template/交易流水导入模板.xlsx
+++ b/fnsco-war-web/src/main/webapp/template/交易流水导入模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fns\workspace-hb\fnsco-big-data\fnsco-war-web\src\main\webapp\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -228,11 +228,11 @@
     <t>10000247</t>
   </si>
   <si>
-    <t>00</t>
+    <t>例080110211943843</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>例080110211943843</t>
+    <t>00不能为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -698,7 +698,7 @@
     </row>
     <row r="2" spans="1:32" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -791,7 +791,7 @@
         <v>50</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
